--- a/CodePintails_NewEqn/Baseline1/network_inputs_adult_male.xlsx
+++ b/CodePintails_NewEqn/Baseline1/network_inputs_adult_male.xlsx
@@ -585,9 +585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>34200</xdr:colOff>
+      <xdr:colOff>33840</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -596,8 +596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7435800" y="3062880"/>
-          <a:ext cx="1532520" cy="485640"/>
+          <a:off x="7321680" y="3062880"/>
+          <a:ext cx="1503720" cy="485280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -659,10 +659,10 @@
       <xdr:rowOff>159120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>585360</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -671,8 +671,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7396200" y="2379600"/>
-          <a:ext cx="1532880" cy="603720"/>
+          <a:off x="7282080" y="2379600"/>
+          <a:ext cx="1513440" cy="603360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,9 +795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>349560</xdr:colOff>
+      <xdr:colOff>349200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -806,8 +806,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7422120" y="2396160"/>
-          <a:ext cx="1385640" cy="488880"/>
+          <a:off x="7307640" y="2396160"/>
+          <a:ext cx="1366200" cy="488520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -875,9 +875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
+      <xdr:colOff>71640</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -886,8 +886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7362000" y="2398320"/>
-          <a:ext cx="1168200" cy="487080"/>
+          <a:off x="7247520" y="2398320"/>
+          <a:ext cx="1148760" cy="486720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -959,7 +959,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1034,10 +1034,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1129,7 +1129,7 @@
         <v>32</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,11 +1721,11 @@
       </c>
       <c r="F27" s="35" t="n">
         <f aca="false">1.25*$Q$2</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="35" t="n">
         <f aca="false">1.25*$Q$2</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,11 +1744,11 @@
       </c>
       <c r="F28" s="35" t="n">
         <f aca="false">1.25*$Q$2</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="35" t="n">
         <f aca="false">1.25*$Q$2</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,11 +1767,11 @@
       </c>
       <c r="F29" s="35" t="n">
         <f aca="false">1.25*$Q$2</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="35" t="n">
         <f aca="false">1.25*$Q$2</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,9 +2009,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2992,8 +2992,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
